--- a/states/Austria.xlsx
+++ b/states/Austria.xlsx
@@ -658,7 +658,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15:55 16-04-2022</t>
+          <t>16:39 16-04-2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>

--- a/states/Austria.xlsx
+++ b/states/Austria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,206 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16:48 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16:57 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17:03 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17:06 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/states/Austria.xlsx
+++ b/states/Austria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
+      <c r="B2" t="n">
+        <v>112</v>
+      </c>
+      <c r="C2" t="n">
+        <v>86</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
       </c>
       <c r="E2" t="n">
         <v>9890000</v>
@@ -796,6 +790,56 @@
           <t xml:space="preserve"> Cechia_nan_615158.0_3594.55; Germania_nan_1347018.0_6203.05;</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/states/Austria.xlsx
+++ b/states/Austria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>timestamp</t>
   </si>
@@ -149,6 +149,24 @@
   </si>
   <si>
     <t>14:07 19-04-2022</t>
+  </si>
+  <si>
+    <t>14:50 19-04-2022</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Svizzera_nan_-869820.0_3391.5; Ungheria_nan_-1057300.0_4122.5; Settentrione (Italia)_nan_-204920.0_799.0; Slovenia_nan_-1231700.0_4802.5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cechia_nan_1252410.0_7752.0; Germania_nan_2269380.0_8151.5;</t>
   </si>
 </sst>
 </file>
@@ -506,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,6 +669,137 @@
         <v>44</v>
       </c>
     </row>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>10900000</v>
+      </c>
+      <c r="F3">
+        <v>42500</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>585000</v>
+      </c>
+      <c r="N3">
+        <v>148240</v>
+      </c>
+      <c r="O3">
+        <v>565.25</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>3500000</v>
+      </c>
+      <c r="T3">
+        <v>52320</v>
+      </c>
+      <c r="U3">
+        <v>8.5</v>
+      </c>
+      <c r="V3">
+        <v>2500000</v>
+      </c>
+      <c r="W3">
+        <v>189660</v>
+      </c>
+      <c r="X3">
+        <v>140.25</v>
+      </c>
+      <c r="Y3">
+        <v>8310000.000000001</v>
+      </c>
+      <c r="Z3">
+        <v>3028020</v>
+      </c>
+      <c r="AA3">
+        <v>1211.25</v>
+      </c>
+      <c r="AB3">
+        <v>3500000</v>
+      </c>
+      <c r="AC3">
+        <v>1540170</v>
+      </c>
+      <c r="AD3">
+        <v>4849.25</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>4350000</v>
+      </c>
+      <c r="AI3">
+        <v>2399090</v>
+      </c>
+      <c r="AJ3">
+        <v>19562.75</v>
+      </c>
+      <c r="AK3">
+        <v>164000</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>954000</v>
+      </c>
+      <c r="AO3">
+        <v>21800</v>
+      </c>
+      <c r="AP3">
+        <v>255</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
